--- a/excels/英雄表.xlsx
+++ b/excels/英雄表.xlsx
@@ -1,58 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\x-template\excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF3725E-2105-47BB-876B-10BF36337C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="heroes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
   <si>
     <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>覆盖英雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模型大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>禁用饰品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能3</t>
@@ -104,206 +99,254 @@
   </si>
   <si>
     <t>护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魔抗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基础攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最小攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最大攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击频率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击动画点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>弹道特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>弹道速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基础力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>力量成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基础敏捷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>敏捷成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基础智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>智力成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>移动能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>转身速率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魔法值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生命回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魔法回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>白天视野</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>夜晚视野</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否有物品栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainKey</t>
+  </si>
+  <si>
+    <t>override_hero</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>ModelScale</t>
+  </si>
+  <si>
+    <t>DisableWearables</t>
+  </si>
+  <si>
+    <t>Ability1</t>
+  </si>
+  <si>
+    <t>Ability2</t>
+  </si>
+  <si>
+    <t>Ability3</t>
+  </si>
+  <si>
+    <t>Ability4</t>
+  </si>
+  <si>
+    <t>Ability5</t>
+  </si>
+  <si>
+    <t>Ability6</t>
+  </si>
+  <si>
+    <t>Ability7</t>
+  </si>
+  <si>
+    <t>Ability8</t>
+  </si>
+  <si>
+    <t>Ability9</t>
+  </si>
+  <si>
+    <t>Ability10</t>
+  </si>
+  <si>
+    <t>Ability11</t>
+  </si>
+  <si>
+    <t>Ability12</t>
+  </si>
+  <si>
+    <t>Ability13</t>
+  </si>
+  <si>
+    <t>Ability14</t>
+  </si>
+  <si>
+    <t>Ability15</t>
+  </si>
+  <si>
+    <t>Ability16</t>
+  </si>
+  <si>
+    <t>Ability17</t>
+  </si>
+  <si>
+    <t>Ability18</t>
+  </si>
+  <si>
+    <t>ArmorPhysical</t>
+  </si>
+  <si>
+    <t>MagicalResistance</t>
+  </si>
+  <si>
+    <t>AttackCapabilities</t>
+  </si>
+  <si>
+    <t>BaseAttackSpeed</t>
+  </si>
+  <si>
+    <t>AttackDamageMin</t>
+  </si>
+  <si>
+    <t>AttackDamageMax</t>
+  </si>
+  <si>
+    <t>AttackRate</t>
+  </si>
+  <si>
+    <t>AttackAnimationPoint</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>ProjectileModel</t>
+  </si>
+  <si>
+    <t>ProjectileSpeed</t>
+  </si>
+  <si>
+    <t>AttributePrimary</t>
+  </si>
+  <si>
+    <t>AttributeBaseStrength</t>
+  </si>
+  <si>
+    <t>AttributeStrengthGain</t>
+  </si>
+  <si>
+    <t>AttributeBaseAgility</t>
+  </si>
+  <si>
+    <t>AttributeAgilityGain</t>
+  </si>
+  <si>
+    <t>AttributeBaseIntelligence</t>
+  </si>
+  <si>
+    <t>AttributeIntelligenceGain</t>
+  </si>
+  <si>
+    <t>MovementCapabilities</t>
+  </si>
+  <si>
+    <t>MovementSpeed</t>
+  </si>
+  <si>
+    <t>MovementTurnRate</t>
+  </si>
+  <si>
+    <t>StatusHealth</t>
+  </si>
+  <si>
+    <t>StatusMana</t>
+  </si>
+  <si>
+    <t>StatusHealthRegen</t>
+  </si>
+  <si>
+    <t>StatusManaRegen</t>
+  </si>
+  <si>
+    <t>VisionDaytimeRange</t>
+  </si>
+  <si>
+    <t>VisionNighttimeRange</t>
+  </si>
+  <si>
+    <t>HasInventory</t>
   </si>
   <si>
     <t>npc_hero_template_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>override_hero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>npc_dota_hero_phoenix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>models/heroes/phoenix/phoenix_bird.vmdl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ModelScale</t>
-  </si>
-  <si>
-    <t>DisableWearables</t>
   </si>
   <si>
     <t>crystal_nova_x</t>
   </si>
   <si>
-    <t>Ability1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ability2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ability3</t>
-  </si>
-  <si>
-    <t>Ability4</t>
-  </si>
-  <si>
-    <t>Ability5</t>
-  </si>
-  <si>
-    <t>Ability6</t>
-  </si>
-  <si>
-    <t>Ability7</t>
-  </si>
-  <si>
-    <t>Ability8</t>
-  </si>
-  <si>
-    <t>Ability9</t>
-  </si>
-  <si>
-    <t>Ability10</t>
-  </si>
-  <si>
-    <t>Ability11</t>
-  </si>
-  <si>
-    <t>Ability12</t>
-  </si>
-  <si>
-    <t>Ability13</t>
-  </si>
-  <si>
-    <t>Ability14</t>
-  </si>
-  <si>
-    <t>Ability15</t>
-  </si>
-  <si>
-    <t>Ability16</t>
-  </si>
-  <si>
-    <t>Ability17</t>
-  </si>
-  <si>
-    <t>Ability18</t>
-  </si>
-  <si>
     <t>counter_helix_x</t>
   </si>
   <si>
@@ -313,127 +356,188 @@
     <t>generic_hidden</t>
   </si>
   <si>
-    <t>ArmorPhysical</t>
-  </si>
-  <si>
-    <t>MagicalResistance</t>
-  </si>
-  <si>
-    <t>AttackCapabilities</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DOTA_UNIT_CAP_NO_ATTACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseAttackSpeed</t>
-  </si>
-  <si>
-    <t>AttackDamageMin</t>
-  </si>
-  <si>
-    <t>AttackDamageMax</t>
-  </si>
-  <si>
-    <t>AttackRate</t>
-  </si>
-  <si>
-    <t>AttackAnimationPoint</t>
-  </si>
-  <si>
-    <t>AttackRange</t>
-  </si>
-  <si>
-    <t>ProjectileModel</t>
-  </si>
-  <si>
-    <t>ProjectileSpeed</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
   </si>
   <si>
-    <t>AttributePrimary</t>
-  </si>
-  <si>
-    <t>AttributeBaseStrength</t>
-  </si>
-  <si>
-    <t>AttributeStrengthGain</t>
-  </si>
-  <si>
-    <t>AttributeBaseIntelligence</t>
-  </si>
-  <si>
-    <t>AttributeIntelligenceGain</t>
-  </si>
-  <si>
-    <t>AttributeBaseAgility</t>
-  </si>
-  <si>
-    <t>AttributeAgilityGain</t>
-  </si>
-  <si>
-    <t>MovementCapabilities</t>
-  </si>
-  <si>
     <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MovementSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MovementTurnRate</t>
-  </si>
-  <si>
-    <t>StatusHealth</t>
-  </si>
-  <si>
-    <t>StatusMana</t>
-  </si>
-  <si>
-    <t>StatusManaRegen</t>
-  </si>
-  <si>
-    <t>StatusHealthRegen</t>
-  </si>
-  <si>
-    <t>VisionDaytimeRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VisionNighttimeRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HasInventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_hero_template_mytest</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_tinker</t>
+  </si>
+  <si>
+    <t>models/heroes/tinker/tinker.vmdl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,19 +546,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,18 +570,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -487,22 +747,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -514,20 +1016,71 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,7 +1126,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -608,7 +1161,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -782,42 +1335,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
-    <col min="6" max="23" width="13.640625" style="2" customWidth="1"/>
-    <col min="24" max="25" width="9.140625" style="3"/>
-    <col min="26" max="34" width="9.140625" style="4"/>
-    <col min="35" max="41" width="9.140625" style="5"/>
-    <col min="42" max="44" width="9.140625" style="6"/>
-    <col min="45" max="48" width="9.140625" style="2"/>
-    <col min="49" max="51" width="9.140625" style="1"/>
-    <col min="52" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="20.5666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.14166666666667" style="1"/>
+    <col min="6" max="23" width="13.6416666666667" style="2" customWidth="1"/>
+    <col min="24" max="25" width="9.14166666666667" style="3"/>
+    <col min="26" max="34" width="9.14166666666667" style="4"/>
+    <col min="35" max="41" width="9.14166666666667" style="5"/>
+    <col min="42" max="44" width="9.14166666666667" style="6"/>
+    <col min="45" max="48" width="9.14166666666667" style="2"/>
+    <col min="49" max="51" width="9.14166666666667" style="1"/>
+    <col min="52" max="16384" width="9.14166666666667" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,170 +1522,170 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="Y2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="Z2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AA2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AB2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AF2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AK2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AL2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AM2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AN2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AO2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AP2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AQ2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AS2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AT2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AU2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AX2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AN2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AY2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:51">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1144,58 +1694,58 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="X3" s="3">
         <v>0</v>
@@ -1204,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="AA3" s="4">
         <v>100</v>
@@ -1222,10 +1772,10 @@
         <v>0.3</v>
       </c>
       <c r="AF3" s="4">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="AJ3" s="5">
         <v>0</v>
@@ -1246,19 +1796,19 @@
         <v>0</v>
       </c>
       <c r="AP3" s="6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AQ3" s="6">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="AR3" s="6">
         <v>0.8</v>
       </c>
       <c r="AS3" s="2">
-        <v>10000</v>
+        <v>666</v>
       </c>
       <c r="AT3" s="2">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="AU3" s="2">
         <v>0</v>
@@ -1276,9 +1826,158 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:51">
+      <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>100</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>1200</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ4" s="6">
+        <v>550</v>
+      </c>
+      <c r="AR4" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>500</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>999</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>1800</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>800</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excels/英雄表.xlsx
+++ b/excels/英雄表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="119">
   <si>
     <t>主键</t>
   </si>
@@ -335,7 +335,7 @@
     <t>HasInventory</t>
   </si>
   <si>
-    <t>npc_hero_template_test</t>
+    <t>npc_dota_hero_phoenix_key</t>
   </si>
   <si>
     <t>npc_dota_hero_phoenix</t>
@@ -356,7 +356,7 @@
     <t>generic_hidden</t>
   </si>
   <si>
-    <t>DOTA_UNIT_CAP_NO_ATTACK</t>
+    <t>DOTA_UNIT_CAP_RANGED_ATTACK</t>
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_STRENGTH</t>
@@ -365,13 +365,25 @@
     <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
   </si>
   <si>
-    <t>npc_hero_template_mytest</t>
+    <t>npc_dota_hero_tinker_key</t>
   </si>
   <si>
     <t>npc_dota_hero_tinker</t>
   </si>
   <si>
     <t>models/heroes/tinker/tinker.vmdl</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_ogre_magi_key</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_ogre_magi</t>
+  </si>
+  <si>
+    <t>models/heroes/ogre_magi/ogre_magi.vmdl</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_MELEE_ATTACK</t>
   </si>
 </sst>
 </file>
@@ -1341,26 +1353,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="20.5666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6416666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.14166666666667" style="1"/>
     <col min="6" max="23" width="13.6416666666667" style="2" customWidth="1"/>
     <col min="24" max="25" width="9.14166666666667" style="3"/>
-    <col min="26" max="34" width="9.14166666666667" style="4"/>
-    <col min="35" max="41" width="9.14166666666667" style="5"/>
+    <col min="26" max="26" width="34.125" style="4" customWidth="1"/>
+    <col min="27" max="34" width="9.14166666666667" style="4"/>
+    <col min="35" max="35" width="43.75" style="5" customWidth="1"/>
+    <col min="36" max="41" width="9.14166666666667" style="5"/>
     <col min="42" max="44" width="9.14166666666667" style="6"/>
     <col min="45" max="48" width="9.14166666666667" style="2"/>
     <col min="49" max="51" width="9.14166666666667" style="1"/>
@@ -1799,7 +1813,7 @@
         <v>111</v>
       </c>
       <c r="AQ3" s="6">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="AR3" s="6">
         <v>0.8</v>
@@ -1820,7 +1834,7 @@
         <v>1800</v>
       </c>
       <c r="AX3" s="1">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="AY3" s="1">
         <v>1</v>
@@ -1837,7 +1851,7 @@
         <v>114</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1969,10 +1983,159 @@
         <v>1800</v>
       </c>
       <c r="AX4" s="1">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="AY4" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51">
+      <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>101</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>1201</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ5" s="6">
+        <v>551</v>
+      </c>
+      <c r="AR5" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>501</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>1801</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>2001</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
